--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\115\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\программы\информатика\Excel-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551B37FE-8250-48C0-B333-E9FD6E7301A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" activeTab="1"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Зонт" sheetId="1" r:id="rId1"/>
     <sheet name="Лицо человека" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1286,7 +1287,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1368,7 +1368,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Лицо человека</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2815,7 +2839,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4011,7 +4034,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4046,7 +4075,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4326,7 +4361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4738,10 +4773,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
